--- a/Code/Results/Cases/Case_6_51/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_51/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.797511941450864</v>
+        <v>1.334803270330582</v>
       </c>
       <c r="C2">
-        <v>0.6776172493121351</v>
+        <v>0.2085835094100901</v>
       </c>
       <c r="D2">
-        <v>0.03570403925067112</v>
+        <v>0.0512292466746338</v>
       </c>
       <c r="E2">
-        <v>0.1731235445133592</v>
+        <v>0.2693357431275629</v>
       </c>
       <c r="F2">
-        <v>2.166411527843664</v>
+        <v>1.777516583494844</v>
       </c>
       <c r="G2">
-        <v>0.0007831383917567987</v>
+        <v>0.0008164234605908508</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7813102823457854</v>
+        <v>1.447892483592057</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.033850456492004</v>
+        <v>0.7072979011343392</v>
       </c>
       <c r="N2">
-        <v>1.263242625515787</v>
+        <v>1.857439454788619</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.411407578052376</v>
+        <v>1.157564728797126</v>
       </c>
       <c r="C3">
-        <v>0.5824600257563759</v>
+        <v>0.1796519017559035</v>
       </c>
       <c r="D3">
-        <v>0.03640126366552465</v>
+        <v>0.05300639630532267</v>
       </c>
       <c r="E3">
-        <v>0.1494506195940488</v>
+        <v>0.2325527202486342</v>
       </c>
       <c r="F3">
-        <v>1.936833467806125</v>
+        <v>1.636846620354433</v>
       </c>
       <c r="G3">
-        <v>0.0007919935226586699</v>
+        <v>0.000823352832180156</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6726619018307929</v>
+        <v>1.252785354026514</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.8901313389910399</v>
+        <v>0.6114221393122392</v>
       </c>
       <c r="N3">
-        <v>1.264276757306391</v>
+        <v>1.841435034717534</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.178594570861662</v>
+        <v>1.050397114188684</v>
       </c>
       <c r="C4">
-        <v>0.5250478039024529</v>
+        <v>0.1621437536252728</v>
       </c>
       <c r="D4">
-        <v>0.03690884850824006</v>
+        <v>0.0541084457718064</v>
       </c>
       <c r="E4">
-        <v>0.1353038651597629</v>
+        <v>0.2104237567979155</v>
       </c>
       <c r="F4">
-        <v>1.800656783560584</v>
+        <v>1.553353479975655</v>
       </c>
       <c r="G4">
-        <v>0.0007975620024851435</v>
+        <v>0.0008277265979751642</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6071369135065865</v>
+        <v>1.134786521582186</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.8036758402902251</v>
+        <v>0.5535692135235948</v>
       </c>
       <c r="N4">
-        <v>1.267083104692645</v>
+        <v>1.833665926664594</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.084638492777572</v>
+        <v>1.007090365896858</v>
       </c>
       <c r="C5">
-        <v>0.5018667176351244</v>
+        <v>0.1550638980853449</v>
       </c>
       <c r="D5">
-        <v>0.03713394700303851</v>
+        <v>0.05456028418666214</v>
       </c>
       <c r="E5">
-        <v>0.1296232962652581</v>
+        <v>0.2015056073108497</v>
       </c>
       <c r="F5">
-        <v>1.746233517436664</v>
+        <v>1.519990833021012</v>
       </c>
       <c r="G5">
-        <v>0.0007998662415269356</v>
+        <v>0.0008295400166785237</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5806892406172182</v>
+        <v>1.087094547738729</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7688299625479473</v>
+        <v>0.5302156918365171</v>
       </c>
       <c r="N5">
-        <v>1.268731975536724</v>
+        <v>1.830986159120783</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.069088330796603</v>
+        <v>0.9999199091296873</v>
       </c>
       <c r="C6">
-        <v>0.4980293860488985</v>
+        <v>0.1538913425249291</v>
       </c>
       <c r="D6">
-        <v>0.03717237978510468</v>
+        <v>0.05463547792079471</v>
       </c>
       <c r="E6">
-        <v>0.1286847704345391</v>
+        <v>0.200030351759672</v>
       </c>
       <c r="F6">
-        <v>1.737257518158074</v>
+        <v>1.514489205339984</v>
       </c>
       <c r="G6">
-        <v>0.0008002510300340049</v>
+        <v>0.0008298430416663657</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5763117776064348</v>
+        <v>1.079197469328847</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.763065342690183</v>
+        <v>0.5263503421481488</v>
       </c>
       <c r="N6">
-        <v>1.269035165470555</v>
+        <v>1.830569683550337</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.177323925452697</v>
+        <v>1.04981165247986</v>
       </c>
       <c r="C7">
-        <v>0.5247343562277536</v>
+        <v>0.1620480621415794</v>
       </c>
       <c r="D7">
-        <v>0.03691181251103615</v>
+        <v>0.05411452828731367</v>
       </c>
       <c r="E7">
-        <v>0.1352269302115552</v>
+        <v>0.2103030993662571</v>
       </c>
       <c r="F7">
-        <v>1.799918648204383</v>
+        <v>1.552900940462933</v>
       </c>
       <c r="G7">
-        <v>0.0007975929338179577</v>
+        <v>0.0008277509271677282</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6067792563415964</v>
+        <v>1.1341418118717</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.8032044166547649</v>
+        <v>0.5532534029492169</v>
       </c>
       <c r="N7">
-        <v>1.267103347272297</v>
+        <v>1.833627857277065</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.663402841942172</v>
+        <v>1.273314897990076</v>
       </c>
       <c r="C8">
-        <v>0.6445709362459979</v>
+        <v>0.198548796228593</v>
       </c>
       <c r="D8">
-        <v>0.03592683932009422</v>
+        <v>0.05183975342203961</v>
       </c>
       <c r="E8">
-        <v>0.164872027521298</v>
+        <v>0.2565488581627378</v>
       </c>
       <c r="F8">
-        <v>2.08617555303546</v>
+        <v>1.72837701300044</v>
       </c>
       <c r="G8">
-        <v>0.0007861656297771778</v>
+        <v>0.0008187886895091905</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7435745514974741</v>
+        <v>1.380209743492401</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.9838841862779475</v>
+        <v>0.6740083793535945</v>
       </c>
       <c r="N8">
-        <v>1.263122768441576</v>
+        <v>1.85147451171018</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.658144879717838</v>
+        <v>1.727328087490122</v>
       </c>
       <c r="C9">
-        <v>0.8896709744003886</v>
+        <v>0.2726309858130662</v>
       </c>
       <c r="D9">
-        <v>0.03471562266252803</v>
+        <v>0.04746543601125985</v>
       </c>
       <c r="E9">
-        <v>0.2267690211071027</v>
+        <v>0.3516056274226642</v>
       </c>
       <c r="F9">
-        <v>2.692246230548363</v>
+        <v>2.09841514545532</v>
       </c>
       <c r="G9">
-        <v>0.0007646986250601382</v>
+        <v>0.0008021035444142518</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.023460074711394</v>
+        <v>1.879917079192637</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.355656414235511</v>
+        <v>0.9205167717709273</v>
       </c>
       <c r="N9">
-        <v>1.274606953250611</v>
+        <v>1.904341764953429</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.42665702104199</v>
+        <v>2.0744478784855</v>
       </c>
       <c r="C10">
-        <v>1.079177008306004</v>
+        <v>0.3293203821947657</v>
       </c>
       <c r="D10">
-        <v>0.03441102034661014</v>
+        <v>0.04430613547042661</v>
       </c>
       <c r="E10">
-        <v>0.2756288355437988</v>
+        <v>0.4252757420026612</v>
       </c>
       <c r="F10">
-        <v>3.1755177111975</v>
+        <v>2.390852253562642</v>
       </c>
       <c r="G10">
-        <v>0.0007493420093052783</v>
+        <v>0.000790302782435116</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.239721039238489</v>
+        <v>2.262007796015382</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.644652923697024</v>
+        <v>1.110107404774396</v>
       </c>
       <c r="N10">
-        <v>1.298080225054576</v>
+        <v>1.956458112556021</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.787713223386959</v>
+        <v>2.236306411958026</v>
       </c>
       <c r="C11">
-        <v>1.16830587742129</v>
+        <v>0.3557876565315325</v>
       </c>
       <c r="D11">
-        <v>0.03443970907397897</v>
+        <v>0.04288172500432097</v>
       </c>
       <c r="E11">
-        <v>0.2988827168872064</v>
+        <v>0.4599210045993374</v>
       </c>
       <c r="F11">
-        <v>3.406454244933002</v>
+        <v>2.529558605809427</v>
       </c>
       <c r="G11">
-        <v>0.0007424043633825761</v>
+        <v>0.0007850125892055155</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.341347383335005</v>
+        <v>2.440212281615345</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.780950536262026</v>
+        <v>1.198849604365492</v>
       </c>
       <c r="N11">
-        <v>1.312893606015706</v>
+        <v>1.983653519074323</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.926403766828969</v>
+        <v>2.298260402698531</v>
       </c>
       <c r="C12">
-        <v>1.202562892985156</v>
+        <v>0.3659254743323288</v>
       </c>
       <c r="D12">
-        <v>0.03447873517571765</v>
+        <v>0.04234432084298412</v>
       </c>
       <c r="E12">
-        <v>0.307865133244043</v>
+        <v>0.4732316084643671</v>
       </c>
       <c r="F12">
-        <v>3.495778736938377</v>
+        <v>2.583012652173693</v>
       </c>
       <c r="G12">
-        <v>0.0007397801044741185</v>
+        <v>0.0007830185816333178</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.380389893210719</v>
+        <v>2.508431672677801</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.83339442427409</v>
+        <v>1.23287464583828</v>
       </c>
       <c r="N12">
-        <v>1.319184155520631</v>
+        <v>1.994510614991071</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.896441211667764</v>
+        <v>2.284886470633126</v>
       </c>
       <c r="C13">
-        <v>1.195161022079049</v>
+        <v>0.363736685383202</v>
       </c>
       <c r="D13">
-        <v>0.03446900415919529</v>
+        <v>0.04245996897510018</v>
       </c>
       <c r="E13">
-        <v>0.3059222393134036</v>
+        <v>0.4703559380846372</v>
       </c>
       <c r="F13">
-        <v>3.476452869635381</v>
+        <v>2.571457111847224</v>
       </c>
       <c r="G13">
-        <v>0.0007403452286801417</v>
+        <v>0.0007834476477216958</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.371954922160143</v>
+        <v>2.493704796277711</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.82206033836755</v>
+        <v>1.225526995136136</v>
       </c>
       <c r="N13">
-        <v>1.317797560822086</v>
+        <v>1.992146506809036</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.799081965929133</v>
+        <v>2.241389569575915</v>
       </c>
       <c r="C14">
-        <v>1.171113545144863</v>
+        <v>0.3566192829393913</v>
       </c>
       <c r="D14">
-        <v>0.03444232914794298</v>
+        <v>0.0428374715113371</v>
       </c>
       <c r="E14">
-        <v>0.2996179820927836</v>
+        <v>0.4610120689060651</v>
       </c>
       <c r="F14">
-        <v>3.413763720838688</v>
+        <v>2.533936991030004</v>
       </c>
       <c r="G14">
-        <v>0.0007421884318607808</v>
+        <v>0.0007848483670580553</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.344547658273768</v>
+        <v>2.445809305395045</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.785247616598895</v>
+        <v>1.201640063883858</v>
       </c>
       <c r="N14">
-        <v>1.313396940674863</v>
+        <v>1.984535187322592</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.739712999996812</v>
+        <v>2.214835587006235</v>
       </c>
       <c r="C15">
-        <v>1.156452422610471</v>
+        <v>0.3522752343243383</v>
       </c>
       <c r="D15">
-        <v>0.03442979216378106</v>
+        <v>0.04306896719144593</v>
       </c>
       <c r="E15">
-        <v>0.2957803905509309</v>
+        <v>0.4553144811445051</v>
       </c>
       <c r="F15">
-        <v>3.375617834168906</v>
+        <v>2.511079385877693</v>
       </c>
       <c r="G15">
-        <v>0.0007433176910255019</v>
+        <v>0.0007857074943787897</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.327835656702192</v>
+        <v>2.416571299729867</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.76281138008747</v>
+        <v>1.187065309943023</v>
       </c>
       <c r="N15">
-        <v>1.310792921046399</v>
+        <v>1.97994762185678</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.403317865729548</v>
+        <v>2.063957309490945</v>
       </c>
       <c r="C16">
-        <v>1.073418045493639</v>
+        <v>0.3276058031150058</v>
       </c>
       <c r="D16">
-        <v>0.03441284612764051</v>
+        <v>0.04439949292394019</v>
       </c>
       <c r="E16">
-        <v>0.2741321823364373</v>
+        <v>0.4230367236346879</v>
       </c>
       <c r="F16">
-        <v>3.160671565712477</v>
+        <v>2.381911022951982</v>
       </c>
       <c r="G16">
-        <v>0.0007497960372913588</v>
+        <v>0.0007906499176533829</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.23315240836628</v>
+        <v>2.250458828248469</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.635853945066629</v>
+        <v>1.104363204050237</v>
       </c>
       <c r="N16">
-        <v>1.297202433512282</v>
+        <v>1.954755750474334</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.200096878181398</v>
+        <v>1.972473745250625</v>
       </c>
       <c r="C17">
-        <v>1.023284372240539</v>
+        <v>0.312657681960161</v>
       </c>
       <c r="D17">
-        <v>0.03444799190365444</v>
+        <v>0.0452190912892787</v>
       </c>
       <c r="E17">
-        <v>0.2611340135306079</v>
+        <v>0.4035444879643322</v>
       </c>
       <c r="F17">
-        <v>3.031835741189894</v>
+        <v>2.304200297701158</v>
       </c>
       <c r="G17">
-        <v>0.0007537799297350836</v>
+        <v>0.0007937006008938759</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.175960256494648</v>
+        <v>2.149750134863979</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.559297637736435</v>
+        <v>1.054308915914099</v>
       </c>
       <c r="N17">
-        <v>1.289981660687673</v>
+        <v>1.940233261132647</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.084266165343138</v>
+        <v>1.920220617867471</v>
       </c>
       <c r="C18">
-        <v>0.9947179587473727</v>
+        <v>0.3041226566068076</v>
       </c>
       <c r="D18">
-        <v>0.03448366467675612</v>
+        <v>0.04569169276159979</v>
       </c>
       <c r="E18">
-        <v>0.2537525243061154</v>
+        <v>0.3924377600543849</v>
       </c>
       <c r="F18">
-        <v>2.958758049364462</v>
+        <v>2.260029847590786</v>
       </c>
       <c r="G18">
-        <v>0.0007560761664901582</v>
+        <v>0.0007954627463936944</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.143364332523774</v>
+        <v>2.092231293410379</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.515709971338964</v>
+        <v>1.02574991707791</v>
       </c>
       <c r="N18">
-        <v>1.286211805893672</v>
+        <v>1.932204757711602</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.045220394259388</v>
+        <v>1.902588757782809</v>
       </c>
       <c r="C19">
-        <v>0.9850896880350604</v>
+        <v>0.3012431166157228</v>
       </c>
       <c r="D19">
-        <v>0.03449828401715038</v>
+        <v>0.04585190807937689</v>
       </c>
       <c r="E19">
-        <v>0.251268737333227</v>
+        <v>0.3886943855042873</v>
       </c>
       <c r="F19">
-        <v>2.934183470719972</v>
+        <v>2.245161722312361</v>
       </c>
       <c r="G19">
-        <v>0.0007568545722551379</v>
+        <v>0.0007960607180731332</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.132376775956146</v>
+        <v>2.072823121221603</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.501024635790927</v>
+        <v>1.016118237693107</v>
       </c>
       <c r="N19">
-        <v>1.284998816263396</v>
+        <v>1.929540530533359</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.221618583124496</v>
+        <v>1.982173825187601</v>
       </c>
       <c r="C20">
-        <v>1.028592752440687</v>
+        <v>0.3142423209692424</v>
       </c>
       <c r="D20">
-        <v>0.03444262325768932</v>
+        <v>0.0451317195225478</v>
       </c>
       <c r="E20">
-        <v>0.262507693160849</v>
+        <v>0.405608440326624</v>
       </c>
       <c r="F20">
-        <v>3.045442538535582</v>
+        <v>2.312417448652411</v>
       </c>
       <c r="G20">
-        <v>0.0007533553674270675</v>
+        <v>0.0007933750904848028</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.182016842055447</v>
+        <v>2.160427984409296</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.567400160098273</v>
+        <v>1.059612961713384</v>
       </c>
       <c r="N20">
-        <v>1.290710065921473</v>
+        <v>1.941745231982949</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.827622582361926</v>
+        <v>2.254146908017617</v>
       </c>
       <c r="C21">
-        <v>1.178162392519766</v>
+        <v>0.3587065581590707</v>
       </c>
       <c r="D21">
-        <v>0.03444936344904193</v>
+        <v>0.04272653440037733</v>
       </c>
       <c r="E21">
-        <v>0.3014646460060035</v>
+        <v>0.4637511569280974</v>
       </c>
       <c r="F21">
-        <v>3.432123753635949</v>
+        <v>2.544931383113379</v>
       </c>
       <c r="G21">
-        <v>0.0007416469956500796</v>
+        <v>0.0007844367067361569</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.352581867881938</v>
+        <v>2.45985645739529</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.796036661765072</v>
+        <v>1.208644302221927</v>
       </c>
       <c r="N21">
-        <v>1.314670269793467</v>
+        <v>1.986755160308292</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.235328248477515</v>
+        <v>2.435805232456914</v>
       </c>
       <c r="C22">
-        <v>1.278913418120396</v>
+        <v>0.3884479669412713</v>
       </c>
       <c r="D22">
-        <v>0.03462039880918155</v>
+        <v>0.04116631241858659</v>
       </c>
       <c r="E22">
-        <v>0.3279721191005933</v>
+        <v>0.5028810683250597</v>
       </c>
       <c r="F22">
-        <v>3.695926490064892</v>
+        <v>2.702369635837954</v>
       </c>
       <c r="G22">
-        <v>0.0007340093212404586</v>
+        <v>0.0007786479445237236</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.467366598226647</v>
+        <v>2.65990586081017</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.950386739690344</v>
+        <v>1.308528747208285</v>
       </c>
       <c r="N22">
-        <v>1.334349757386761</v>
+        <v>2.019460509012163</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.016543640813495</v>
+        <v>2.338459407303503</v>
       </c>
       <c r="C23">
-        <v>1.224834303443004</v>
+        <v>0.3725056712408445</v>
       </c>
       <c r="D23">
-        <v>0.03451230569102748</v>
+        <v>0.04199789639351881</v>
       </c>
       <c r="E23">
-        <v>0.3137179414040716</v>
+        <v>0.4818829410294043</v>
       </c>
       <c r="F23">
-        <v>3.554012072733798</v>
+        <v>2.617799900011164</v>
       </c>
       <c r="G23">
-        <v>0.000738085876084682</v>
+        <v>0.0007817333694195982</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.40576673107303</v>
+        <v>2.552698827185196</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.867505928931337</v>
+        <v>1.254969007371159</v>
       </c>
       <c r="N23">
-        <v>1.323446359301769</v>
+        <v>2.001683353400239</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.211885517342125</v>
+        <v>1.977787360739825</v>
       </c>
       <c r="C24">
-        <v>1.02619204233946</v>
+        <v>0.3135257236757809</v>
       </c>
       <c r="D24">
-        <v>0.03444500254765259</v>
+        <v>0.04517121593792606</v>
       </c>
       <c r="E24">
-        <v>0.261886370245989</v>
+        <v>0.4046750192731352</v>
       </c>
       <c r="F24">
-        <v>3.039287836887894</v>
+        <v>2.308700905497531</v>
       </c>
       <c r="G24">
-        <v>0.0007535472935085449</v>
+        <v>0.0007935222277658069</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.179277779979714</v>
+        <v>2.155599353094544</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.56373569416489</v>
+        <v>1.057214328503917</v>
       </c>
       <c r="N24">
-        <v>1.290379572099624</v>
+        <v>1.941060675395164</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.383413432955479</v>
+        <v>1.602436044352743</v>
       </c>
       <c r="C25">
-        <v>0.8219716704790017</v>
+        <v>0.2522505096912369</v>
       </c>
       <c r="D25">
-        <v>0.03495244783531959</v>
+        <v>0.04863945861837582</v>
       </c>
       <c r="E25">
-        <v>0.2095177872752529</v>
+        <v>0.325309540506332</v>
       </c>
       <c r="F25">
-        <v>2.522475832493967</v>
+        <v>1.995071280999724</v>
       </c>
       <c r="G25">
-        <v>0.0007704204218353495</v>
+        <v>0.0008065303229507065</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.9461606326397742</v>
+        <v>1.742458777579827</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.252716124865799</v>
+        <v>0.8525419586117522</v>
       </c>
       <c r="N25">
-        <v>1.269122914087916</v>
+        <v>1.887895814473652</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_51/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_51/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.334803270330582</v>
+        <v>0.8461880198205165</v>
       </c>
       <c r="C2">
-        <v>0.2085835094100901</v>
+        <v>0.2088303588257077</v>
       </c>
       <c r="D2">
-        <v>0.0512292466746338</v>
+        <v>0.05143576327460408</v>
       </c>
       <c r="E2">
-        <v>0.2693357431275629</v>
+        <v>0.3150547976178188</v>
       </c>
       <c r="F2">
-        <v>1.777516583494844</v>
+        <v>0.7175496845219129</v>
       </c>
       <c r="G2">
-        <v>0.0008164234605908508</v>
+        <v>0.6283410699583811</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0004664770982518718</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.4564999731257444</v>
       </c>
       <c r="K2">
-        <v>1.447892483592057</v>
+        <v>0.4265863278813526</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7072979011343392</v>
+        <v>1.007721155881114</v>
       </c>
       <c r="N2">
-        <v>1.857439454788619</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.6231535880460584</v>
+      </c>
+      <c r="P2">
+        <v>0.8836898509143474</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.157564728797126</v>
+        <v>0.7351210491902407</v>
       </c>
       <c r="C3">
-        <v>0.1796519017559035</v>
+        <v>0.1813642860671791</v>
       </c>
       <c r="D3">
-        <v>0.05300639630532267</v>
+        <v>0.04787427157744872</v>
       </c>
       <c r="E3">
-        <v>0.2325527202486342</v>
+        <v>0.2736515129135597</v>
       </c>
       <c r="F3">
-        <v>1.636846620354433</v>
+        <v>0.6714792747376421</v>
       </c>
       <c r="G3">
-        <v>0.000823352832180156</v>
+        <v>0.5907235316216344</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0005338287913141393</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.4444764975623485</v>
       </c>
       <c r="K3">
-        <v>1.252785354026514</v>
+        <v>0.4162189452548546</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6114221393122392</v>
+        <v>0.8750746498483863</v>
       </c>
       <c r="N3">
-        <v>1.841435034717534</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.5396863678625152</v>
+      </c>
+      <c r="P3">
+        <v>0.9187711337413944</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.050397114188684</v>
+        <v>0.6667287475850401</v>
       </c>
       <c r="C4">
-        <v>0.1621437536252728</v>
+        <v>0.1647791917108492</v>
       </c>
       <c r="D4">
-        <v>0.0541084457718064</v>
+        <v>0.04568470559340554</v>
       </c>
       <c r="E4">
-        <v>0.2104237567979155</v>
+        <v>0.2486823050289289</v>
       </c>
       <c r="F4">
-        <v>1.553353479975655</v>
+        <v>0.6439364745499603</v>
       </c>
       <c r="G4">
-        <v>0.0008277265979751642</v>
+        <v>0.5682954576652577</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0008565929708228559</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.4375238884844066</v>
       </c>
       <c r="K4">
-        <v>1.134786521582186</v>
+        <v>0.4101597724694912</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5535692135235948</v>
+        <v>0.7937899555232377</v>
       </c>
       <c r="N4">
-        <v>1.833665926664594</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.4888918344411479</v>
+      </c>
+      <c r="P4">
+        <v>0.941057718876781</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.007090365896858</v>
+        <v>0.6380791399515715</v>
       </c>
       <c r="C5">
-        <v>0.1550638980853449</v>
+        <v>0.158428248257664</v>
       </c>
       <c r="D5">
-        <v>0.05456028418666214</v>
+        <v>0.04483850260253774</v>
       </c>
       <c r="E5">
-        <v>0.2015056073108497</v>
+        <v>0.2386219124916522</v>
       </c>
       <c r="F5">
-        <v>1.519990833021012</v>
+        <v>0.6322340904500479</v>
       </c>
       <c r="G5">
-        <v>0.0008295400166785237</v>
+        <v>0.5586055580607336</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.001125000666380771</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.4344327906015195</v>
       </c>
       <c r="K5">
-        <v>1.087094547738729</v>
+        <v>0.4072434084790331</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5302156918365171</v>
+        <v>0.7605399702323155</v>
       </c>
       <c r="N5">
-        <v>1.830986159120783</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.4682576481933083</v>
+      </c>
+      <c r="P5">
+        <v>0.9499192150163864</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9999199091296873</v>
+        <v>0.6324328850780887</v>
       </c>
       <c r="C6">
-        <v>0.1538913425249291</v>
+        <v>0.1578004283902601</v>
       </c>
       <c r="D6">
-        <v>0.05463547792079471</v>
+        <v>0.0447556278538741</v>
       </c>
       <c r="E6">
-        <v>0.200030351759672</v>
+        <v>0.2369736191152683</v>
       </c>
       <c r="F6">
-        <v>1.514489205339984</v>
+        <v>0.6295025861395587</v>
       </c>
       <c r="G6">
-        <v>0.0008298430416663657</v>
+        <v>0.5561419960966987</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.001266454627375069</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.4334846850511553</v>
       </c>
       <c r="K6">
-        <v>1.079197469328847</v>
+        <v>0.4061282032105566</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5263503421481488</v>
+        <v>0.7548328847978212</v>
       </c>
       <c r="N6">
-        <v>1.830569683550337</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.4647956784362606</v>
+      </c>
+      <c r="P6">
+        <v>0.9509109777283911</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.04981165247986</v>
+        <v>0.6639142363916335</v>
       </c>
       <c r="C7">
-        <v>0.1620480621415794</v>
+        <v>0.1658512995904431</v>
       </c>
       <c r="D7">
-        <v>0.05411452828731367</v>
+        <v>0.04583168893793754</v>
       </c>
       <c r="E7">
-        <v>0.2103030993662571</v>
+        <v>0.2485911676352188</v>
       </c>
       <c r="F7">
-        <v>1.552900940462933</v>
+        <v>0.6415949793224485</v>
       </c>
       <c r="G7">
-        <v>0.0008277509271677282</v>
+        <v>0.5658030733266344</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.001097088001294821</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.4362777904663915</v>
       </c>
       <c r="K7">
-        <v>1.1341418118717</v>
+        <v>0.4083844861842287</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5532534029492169</v>
+        <v>0.7928272489246524</v>
       </c>
       <c r="N7">
-        <v>1.833627857277065</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.4884995898201154</v>
+      </c>
+      <c r="P7">
+        <v>0.9398489768388032</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.273314897990076</v>
+        <v>0.804676291204828</v>
       </c>
       <c r="C8">
-        <v>0.198548796228593</v>
+        <v>0.2008431229118912</v>
       </c>
       <c r="D8">
-        <v>0.05183975342203961</v>
+        <v>0.05042167929394736</v>
       </c>
       <c r="E8">
-        <v>0.2565488581627378</v>
+        <v>0.3007365220024383</v>
       </c>
       <c r="F8">
-        <v>1.72837701300044</v>
+        <v>0.6986065862851092</v>
       </c>
       <c r="G8">
-        <v>0.0008187886895091905</v>
+        <v>0.612093243329511</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.0007071239411393648</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.4506704479109374</v>
       </c>
       <c r="K8">
-        <v>1.380209743492401</v>
+        <v>0.4206494162479011</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6740083793535945</v>
+        <v>0.9612498576275925</v>
       </c>
       <c r="N8">
-        <v>1.85147451171018</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.5941147185028157</v>
+      </c>
+      <c r="P8">
+        <v>0.8939294460100911</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.727328087490122</v>
+        <v>1.083869108870402</v>
       </c>
       <c r="C9">
-        <v>0.2726309858130662</v>
+        <v>0.2699448771904684</v>
       </c>
       <c r="D9">
-        <v>0.04746543601125985</v>
+        <v>0.05912234370538272</v>
       </c>
       <c r="E9">
-        <v>0.3516056274226642</v>
+        <v>0.4071091850954076</v>
       </c>
       <c r="F9">
-        <v>2.09841514545532</v>
+        <v>0.8208522066995272</v>
       </c>
       <c r="G9">
-        <v>0.0008021035444142518</v>
+        <v>0.7130061975602473</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.002015544668065417</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.4847158303170431</v>
       </c>
       <c r="K9">
-        <v>1.879917079192637</v>
+        <v>0.4504501652129633</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.9205167717709273</v>
+        <v>1.294398587761179</v>
       </c>
       <c r="N9">
-        <v>1.904341764953429</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.8058077732632114</v>
+      </c>
+      <c r="P9">
+        <v>0.8123379125238372</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.0744478784855</v>
+        <v>1.287447973016072</v>
       </c>
       <c r="C10">
-        <v>0.3293203821947657</v>
+        <v>0.3234187035170066</v>
       </c>
       <c r="D10">
-        <v>0.04430613547042661</v>
+        <v>0.06561059537348513</v>
       </c>
       <c r="E10">
-        <v>0.4252757420026612</v>
+        <v>0.4887497888012646</v>
       </c>
       <c r="F10">
-        <v>2.390852253562642</v>
+        <v>0.9144810226797517</v>
       </c>
       <c r="G10">
-        <v>0.000790302782435116</v>
+        <v>0.7904518339931741</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.004839387156511776</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.5117614007774023</v>
       </c>
       <c r="K10">
-        <v>2.262007796015382</v>
+        <v>0.4734194056607492</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.110107404774396</v>
+        <v>1.541060292736347</v>
       </c>
       <c r="N10">
-        <v>1.956458112556021</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.9650871198661335</v>
+      </c>
+      <c r="P10">
+        <v>0.7559667842857571</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.236306411958026</v>
+        <v>1.375950874471101</v>
       </c>
       <c r="C11">
-        <v>0.3557876565315325</v>
+        <v>0.3503031730312784</v>
       </c>
       <c r="D11">
-        <v>0.04288172500432097</v>
+        <v>0.06884854344896496</v>
       </c>
       <c r="E11">
-        <v>0.4599210045993374</v>
+        <v>0.52693341562059</v>
       </c>
       <c r="F11">
-        <v>2.529558605809427</v>
+        <v>0.9547585363633857</v>
       </c>
       <c r="G11">
-        <v>0.0007850125892055155</v>
+        <v>0.822980661706481</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.006907235308670323</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.5227697847020352</v>
       </c>
       <c r="K11">
-        <v>2.440212281615345</v>
+        <v>0.4815387196765641</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.198849604365492</v>
+        <v>1.653070834533082</v>
       </c>
       <c r="N11">
-        <v>1.983653519074323</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>1.038436027447467</v>
+      </c>
+      <c r="P11">
+        <v>0.7294444275904226</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.298260402698531</v>
+        <v>1.41168193704388</v>
       </c>
       <c r="C12">
-        <v>0.3659254743323288</v>
+        <v>0.3595376713338112</v>
       </c>
       <c r="D12">
-        <v>0.04234432084298412</v>
+        <v>0.06992896419769323</v>
       </c>
       <c r="E12">
-        <v>0.4732316084643671</v>
+        <v>0.5415150679269871</v>
       </c>
       <c r="F12">
-        <v>2.583012652173693</v>
+        <v>0.9721292500259722</v>
       </c>
       <c r="G12">
-        <v>0.0007830185816333178</v>
+        <v>0.8375539925882123</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.007581432197819815</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.5280847513963067</v>
       </c>
       <c r="K12">
-        <v>2.508431672677801</v>
+        <v>0.486195437724632</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.23287464583828</v>
+        <v>1.696089261772102</v>
       </c>
       <c r="N12">
-        <v>1.994510614991071</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>1.066507777407331</v>
+      </c>
+      <c r="P12">
+        <v>0.7205699681376672</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.284886470633126</v>
+        <v>1.404429849472848</v>
       </c>
       <c r="C13">
-        <v>0.363736685383202</v>
+        <v>0.357333694963387</v>
       </c>
       <c r="D13">
-        <v>0.04245996897510018</v>
+        <v>0.06966638277093296</v>
       </c>
       <c r="E13">
-        <v>0.4703559380846372</v>
+        <v>0.5383596934605279</v>
       </c>
       <c r="F13">
-        <v>2.571457111847224</v>
+        <v>0.968763902780978</v>
       </c>
       <c r="G13">
-        <v>0.0007834476477216958</v>
+        <v>0.8348222703602346</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.007394646758868362</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.5271448640310723</v>
       </c>
       <c r="K13">
-        <v>2.493704796277711</v>
+        <v>0.4854910644471673</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.225526995136136</v>
+        <v>1.686915848507539</v>
       </c>
       <c r="N13">
-        <v>1.992146506809036</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>1.060476400059102</v>
+      </c>
+      <c r="P13">
+        <v>0.7226756522001416</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.241389569575915</v>
+        <v>1.37907855149129</v>
       </c>
       <c r="C14">
-        <v>0.3566192829393913</v>
+        <v>0.3509714329798612</v>
       </c>
       <c r="D14">
-        <v>0.0428374715113371</v>
+        <v>0.06892474342561883</v>
       </c>
       <c r="E14">
-        <v>0.4610120689060651</v>
+        <v>0.5281265334579217</v>
       </c>
       <c r="F14">
-        <v>2.533936991030004</v>
+        <v>0.95634697425551</v>
       </c>
       <c r="G14">
-        <v>0.0007848483670580553</v>
+        <v>0.8243522054981867</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.006944607842742201</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.5232939220026509</v>
       </c>
       <c r="K14">
-        <v>2.445809305395045</v>
+        <v>0.482048528853845</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.201640063883858</v>
+        <v>1.656648596780144</v>
       </c>
       <c r="N14">
-        <v>1.984535187322592</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>1.040751389141228</v>
+      </c>
+      <c r="P14">
+        <v>0.7287969410633579</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.214835587006235</v>
+        <v>1.362680265491264</v>
       </c>
       <c r="C15">
-        <v>0.3522752343243383</v>
+        <v>0.3475019750509318</v>
       </c>
       <c r="D15">
-        <v>0.04306896719144593</v>
+        <v>0.06852929044230649</v>
       </c>
       <c r="E15">
-        <v>0.4553144811445051</v>
+        <v>0.5218947433603631</v>
       </c>
       <c r="F15">
-        <v>2.511079385877693</v>
+        <v>0.9480108384244801</v>
       </c>
       <c r="G15">
-        <v>0.0007857074943787897</v>
+        <v>0.8171466742908251</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.006758506571403089</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.5205364939666026</v>
       </c>
       <c r="K15">
-        <v>2.416571299729867</v>
+        <v>0.4793559485470595</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.187065309943023</v>
+        <v>1.637935140780002</v>
       </c>
       <c r="N15">
-        <v>1.97994762185678</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>1.028649117956817</v>
+      </c>
+      <c r="P15">
+        <v>0.7321686183813654</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.063957309490945</v>
+        <v>1.274331196169413</v>
       </c>
       <c r="C16">
-        <v>0.3276058031150058</v>
+        <v>0.3251553259916875</v>
       </c>
       <c r="D16">
-        <v>0.04439949292394019</v>
+        <v>0.06589017388260032</v>
       </c>
       <c r="E16">
-        <v>0.4230367236346879</v>
+        <v>0.4864016989023554</v>
       </c>
       <c r="F16">
-        <v>2.381911022951982</v>
+        <v>0.9054910504721647</v>
       </c>
       <c r="G16">
-        <v>0.0007906499176533829</v>
+        <v>0.7814587697156128</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.005341871902997397</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.5075770240159017</v>
       </c>
       <c r="K16">
-        <v>2.250458828248469</v>
+        <v>0.4678823478096774</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.104363204050237</v>
+        <v>1.532159170460289</v>
       </c>
       <c r="N16">
-        <v>1.954755750474334</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.9599443846434141</v>
+      </c>
+      <c r="P16">
+        <v>0.7543227793871488</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.972473745250625</v>
+        <v>1.220190386161903</v>
       </c>
       <c r="C17">
-        <v>0.312657681960161</v>
+        <v>0.3115890579719576</v>
       </c>
       <c r="D17">
-        <v>0.0452190912892787</v>
+        <v>0.06427075517698455</v>
       </c>
       <c r="E17">
-        <v>0.4035444879643322</v>
+        <v>0.4648907341347268</v>
       </c>
       <c r="F17">
-        <v>2.304200297701158</v>
+        <v>0.8797799506276505</v>
       </c>
       <c r="G17">
-        <v>0.0007937006008938759</v>
+        <v>0.7599147023597794</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.004599308475556896</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.4998184368575238</v>
       </c>
       <c r="K17">
-        <v>2.149750134863979</v>
+        <v>0.4609988917716237</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.054308915914099</v>
+        <v>1.467475136093299</v>
       </c>
       <c r="N17">
-        <v>1.940233261132647</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.9180993487010625</v>
+      </c>
+      <c r="P17">
+        <v>0.7681849038449613</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.920220617867471</v>
+        <v>1.191276543426738</v>
       </c>
       <c r="C18">
-        <v>0.3041226566068076</v>
+        <v>0.3027800577876292</v>
       </c>
       <c r="D18">
-        <v>0.04569169276159979</v>
+        <v>0.0631906510044189</v>
       </c>
       <c r="E18">
-        <v>0.3924377600543849</v>
+        <v>0.4525699996010175</v>
       </c>
       <c r="F18">
-        <v>2.260029847590786</v>
+        <v>0.8670504705106339</v>
       </c>
       <c r="G18">
-        <v>0.0007954627463936944</v>
+        <v>0.7497258334330894</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.00398604767688493</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.4964750010499444</v>
       </c>
       <c r="K18">
-        <v>2.092231293410379</v>
+        <v>0.4586081727914291</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.02574991707791</v>
+        <v>1.430819190821182</v>
       </c>
       <c r="N18">
-        <v>1.932204757711602</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.8942460418225906</v>
+      </c>
+      <c r="P18">
+        <v>0.7772873360880794</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.902588757782809</v>
+        <v>1.179785298709135</v>
       </c>
       <c r="C19">
-        <v>0.3012431166157228</v>
+        <v>0.300619124951055</v>
       </c>
       <c r="D19">
-        <v>0.04585190807937689</v>
+        <v>0.06293937254474002</v>
       </c>
       <c r="E19">
-        <v>0.3886943855042873</v>
+        <v>0.4484430366536927</v>
       </c>
       <c r="F19">
-        <v>2.245161722312361</v>
+        <v>0.8612746409792038</v>
       </c>
       <c r="G19">
-        <v>0.0007960607180731332</v>
+        <v>0.744691010668376</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.003960270342894034</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.4945430844408918</v>
       </c>
       <c r="K19">
-        <v>2.072823121221603</v>
+        <v>0.4566397083627081</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.016118237693107</v>
+        <v>1.418049278101194</v>
       </c>
       <c r="N19">
-        <v>1.929540530533359</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.8861008435575357</v>
+      </c>
+      <c r="P19">
+        <v>0.7795891253951659</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.982173825187601</v>
+        <v>1.226125420104864</v>
       </c>
       <c r="C20">
-        <v>0.3142423209692424</v>
+        <v>0.3129451299800792</v>
       </c>
       <c r="D20">
-        <v>0.0451317195225478</v>
+        <v>0.06443148635666773</v>
       </c>
       <c r="E20">
-        <v>0.405608440326624</v>
+        <v>0.4671681119657549</v>
       </c>
       <c r="F20">
-        <v>2.312417448652411</v>
+        <v>0.8826546434459033</v>
       </c>
       <c r="G20">
-        <v>0.0007933750904848028</v>
+        <v>0.7623586578321522</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.004655423600134156</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.5007197984356537</v>
       </c>
       <c r="K20">
-        <v>2.160427984409296</v>
+        <v>0.4618447117607403</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.059612961713384</v>
+        <v>1.474391310990569</v>
       </c>
       <c r="N20">
-        <v>1.941745231982949</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.9225517197167505</v>
+      </c>
+      <c r="P20">
+        <v>0.7667797346216858</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.254146908017617</v>
+        <v>1.384035248311051</v>
       </c>
       <c r="C21">
-        <v>0.3587065581590707</v>
+        <v>0.3540202569026007</v>
       </c>
       <c r="D21">
-        <v>0.04272653440037733</v>
+        <v>0.0693099247828215</v>
       </c>
       <c r="E21">
-        <v>0.4637511569280974</v>
+        <v>0.5311699261399951</v>
       </c>
       <c r="F21">
-        <v>2.544931383113379</v>
+        <v>0.9578292027138389</v>
       </c>
       <c r="G21">
-        <v>0.0007844367067361569</v>
+        <v>0.8250925541231737</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.007302639356066898</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.5232474481684761</v>
       </c>
       <c r="K21">
-        <v>2.45985645739529</v>
+        <v>0.4813645724871947</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.208644302221927</v>
+        <v>1.664990785657295</v>
       </c>
       <c r="N21">
-        <v>1.986755160308292</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.046411413212887</v>
+      </c>
+      <c r="P21">
+        <v>0.7258668812462332</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.435805232456914</v>
+        <v>1.490635726743193</v>
       </c>
       <c r="C22">
-        <v>0.3884479669412713</v>
+        <v>0.379873950934865</v>
       </c>
       <c r="D22">
-        <v>0.04116631241858659</v>
+        <v>0.07228532795385689</v>
       </c>
       <c r="E22">
-        <v>0.5028810683250597</v>
+        <v>0.5738871117508211</v>
       </c>
       <c r="F22">
-        <v>2.702369635837954</v>
+        <v>1.011008725926629</v>
       </c>
       <c r="G22">
-        <v>0.0007786479445237236</v>
+        <v>0.8702761147612392</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.009175894533339779</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.5401258384122229</v>
       </c>
       <c r="K22">
-        <v>2.65990586081017</v>
+        <v>0.4968106492409063</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.308528747208285</v>
+        <v>1.791010635915711</v>
       </c>
       <c r="N22">
-        <v>2.019460509012163</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.128617479599107</v>
+      </c>
+      <c r="P22">
+        <v>0.7014833852209179</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.338459407303503</v>
+        <v>1.436720878474432</v>
       </c>
       <c r="C23">
-        <v>0.3725056712408445</v>
+        <v>0.3645998510094728</v>
       </c>
       <c r="D23">
-        <v>0.04199789639351881</v>
+        <v>0.07049542284856614</v>
       </c>
       <c r="E23">
-        <v>0.4818829410294043</v>
+        <v>0.5509443301848478</v>
       </c>
       <c r="F23">
-        <v>2.617799900011164</v>
+        <v>0.9851037862647587</v>
       </c>
       <c r="G23">
-        <v>0.0007817333694195982</v>
+        <v>0.8488524381496489</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.00787792659699349</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.5324704227873127</v>
       </c>
       <c r="K23">
-        <v>2.552698827185196</v>
+        <v>0.4905576482820351</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.254969007371159</v>
+        <v>1.724332669812497</v>
       </c>
       <c r="N23">
-        <v>2.001683353400239</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.084789547166629</v>
+      </c>
+      <c r="P23">
+        <v>0.7157680350580904</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.977787360739825</v>
+        <v>1.228127299865406</v>
       </c>
       <c r="C24">
-        <v>0.3135257236757809</v>
+        <v>0.3101009337590312</v>
       </c>
       <c r="D24">
-        <v>0.04517121593792606</v>
+        <v>0.06404464079584926</v>
       </c>
       <c r="E24">
-        <v>0.4046750192731352</v>
+        <v>0.4660570120415741</v>
       </c>
       <c r="F24">
-        <v>2.308700905497531</v>
+        <v>0.8854406356088447</v>
       </c>
       <c r="G24">
-        <v>0.0007935222277658069</v>
+        <v>0.7656634314157458</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.004183888685384218</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.5025396451938775</v>
       </c>
       <c r="K24">
-        <v>2.155599353094544</v>
+        <v>0.464671797538287</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.057214328503917</v>
+        <v>1.472282551514013</v>
       </c>
       <c r="N24">
-        <v>1.941060675395164</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.920775529330129</v>
+      </c>
+      <c r="P24">
+        <v>0.769599331379947</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.602436044352743</v>
+        <v>1.003921732424288</v>
       </c>
       <c r="C25">
-        <v>0.2522505096912369</v>
+        <v>0.2530625188734916</v>
       </c>
       <c r="D25">
-        <v>0.04863945861837582</v>
+        <v>0.0570668659364344</v>
       </c>
       <c r="E25">
-        <v>0.325309540506332</v>
+        <v>0.377873815162765</v>
       </c>
       <c r="F25">
-        <v>1.995071280999724</v>
+        <v>0.7830261386244786</v>
       </c>
       <c r="G25">
-        <v>0.0008065303229507065</v>
+        <v>0.6807038828746386</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.001761382644350995</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.4729050207329948</v>
       </c>
       <c r="K25">
-        <v>1.742458777579827</v>
+        <v>0.4389447253118135</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.8525419586117522</v>
+        <v>1.202998268918236</v>
       </c>
       <c r="N25">
-        <v>1.887895814473652</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>0.7477362712215339</v>
+      </c>
+      <c r="P25">
+        <v>0.8314977092640419</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_51/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_51/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8461880198205165</v>
+        <v>0.7876198906025991</v>
       </c>
       <c r="C2">
-        <v>0.2088303588257077</v>
+        <v>0.2338023123366497</v>
       </c>
       <c r="D2">
-        <v>0.05143576327460408</v>
+        <v>0.05508227474745553</v>
       </c>
       <c r="E2">
-        <v>0.3150547976178188</v>
+        <v>0.3165628110647631</v>
       </c>
       <c r="F2">
-        <v>0.7175496845219129</v>
+        <v>0.6565563339593723</v>
       </c>
       <c r="G2">
-        <v>0.6283410699583811</v>
+        <v>0.5429870900158988</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0004664770982518718</v>
+        <v>0.0006391986156035756</v>
       </c>
       <c r="J2">
-        <v>0.4564999731257444</v>
+        <v>0.456503569980967</v>
       </c>
       <c r="K2">
-        <v>0.4265863278813526</v>
+        <v>0.3727429025142577</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1901974772993533</v>
       </c>
       <c r="M2">
-        <v>1.007721155881114</v>
+        <v>0.0992619655475302</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.6231535880460584</v>
+        <v>0.996105276019307</v>
       </c>
       <c r="P2">
-        <v>0.8836898509143474</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.6209040473957472</v>
+      </c>
+      <c r="R2">
+        <v>0.8366632190807319</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7351210491902407</v>
+        <v>0.688564923202847</v>
       </c>
       <c r="C3">
-        <v>0.1813642860671791</v>
+        <v>0.2005481717851296</v>
       </c>
       <c r="D3">
-        <v>0.04787427157744872</v>
+        <v>0.05043084325459546</v>
       </c>
       <c r="E3">
-        <v>0.2736515129135597</v>
+        <v>0.2749955112923743</v>
       </c>
       <c r="F3">
-        <v>0.6714792747376421</v>
+        <v>0.6185254587519751</v>
       </c>
       <c r="G3">
-        <v>0.5907235316216344</v>
+        <v>0.5151831545325933</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0005338287913141393</v>
+        <v>0.0005165111531861832</v>
       </c>
       <c r="J3">
-        <v>0.4444764975623485</v>
+        <v>0.444789875289203</v>
       </c>
       <c r="K3">
-        <v>0.4162189452548546</v>
+        <v>0.3675824494436029</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1933915101603176</v>
       </c>
       <c r="M3">
-        <v>0.8750746498483863</v>
+        <v>0.09315784894310042</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.5396863678625152</v>
+        <v>0.8666358658437048</v>
       </c>
       <c r="P3">
-        <v>0.9187711337413944</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.5381383629769729</v>
+      </c>
+      <c r="R3">
+        <v>0.8719794420864648</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6667287475850401</v>
+        <v>0.6273334596323537</v>
       </c>
       <c r="C4">
-        <v>0.1647791917108492</v>
+        <v>0.18052465423591</v>
       </c>
       <c r="D4">
-        <v>0.04568470559340554</v>
+        <v>0.04758493959490551</v>
       </c>
       <c r="E4">
-        <v>0.2486823050289289</v>
+        <v>0.2499242381793323</v>
       </c>
       <c r="F4">
-        <v>0.6439364745499603</v>
+        <v>0.5957018480764233</v>
       </c>
       <c r="G4">
-        <v>0.5682954576652577</v>
+        <v>0.4987371431019199</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0008565929708228559</v>
+        <v>0.000662450664566272</v>
       </c>
       <c r="J4">
-        <v>0.4375238884844066</v>
+        <v>0.437703665700198</v>
       </c>
       <c r="K4">
-        <v>0.4101597724694912</v>
+        <v>0.3645765721017611</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1953295847120913</v>
       </c>
       <c r="M4">
-        <v>0.7937899555232377</v>
+        <v>0.09007253834070461</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.4888918344411479</v>
+        <v>0.787177573053242</v>
       </c>
       <c r="P4">
-        <v>0.941057718876781</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.4877192331127418</v>
+      </c>
+      <c r="R4">
+        <v>0.8943583935898474</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6380791399515715</v>
+        <v>0.6015914268934921</v>
       </c>
       <c r="C5">
-        <v>0.158428248257664</v>
+        <v>0.1728222610126835</v>
       </c>
       <c r="D5">
-        <v>0.04483850260253774</v>
+        <v>0.04647744251959551</v>
       </c>
       <c r="E5">
-        <v>0.2386219124916522</v>
+        <v>0.2398220884092552</v>
       </c>
       <c r="F5">
-        <v>0.6322340904500479</v>
+        <v>0.5859123042910923</v>
       </c>
       <c r="G5">
-        <v>0.5586055580607336</v>
+        <v>0.4915340982014129</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.001125000666380771</v>
+        <v>0.0008563826101717353</v>
       </c>
       <c r="J5">
-        <v>0.4344327906015195</v>
+        <v>0.4344937754091518</v>
       </c>
       <c r="K5">
-        <v>0.4072434084790331</v>
+        <v>0.3629236582168858</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1958909689209456</v>
       </c>
       <c r="M5">
-        <v>0.7605399702323155</v>
+        <v>0.08885019005518657</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.4682576481933083</v>
+        <v>0.75464856350861</v>
       </c>
       <c r="P5">
-        <v>0.9499192150163864</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.4672266536112346</v>
+      </c>
+      <c r="R5">
+        <v>0.9033231950473066</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6324328850780887</v>
+        <v>0.5964750716995866</v>
       </c>
       <c r="C6">
-        <v>0.1578004283902601</v>
+        <v>0.1719979840026298</v>
       </c>
       <c r="D6">
-        <v>0.0447556278538741</v>
+        <v>0.04635507062948818</v>
       </c>
       <c r="E6">
-        <v>0.2369736191152683</v>
+        <v>0.2381666151585975</v>
       </c>
       <c r="F6">
-        <v>0.6295025861395587</v>
+        <v>0.5835466320815357</v>
       </c>
       <c r="G6">
-        <v>0.5561419960966987</v>
+        <v>0.4895564068478535</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.001266454627375069</v>
+        <v>0.001000551443124387</v>
       </c>
       <c r="J6">
-        <v>0.4334846850511553</v>
+        <v>0.4335383543834297</v>
       </c>
       <c r="K6">
-        <v>0.4061282032105566</v>
+        <v>0.3620824983479451</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1957129030673848</v>
       </c>
       <c r="M6">
-        <v>0.7548328847978212</v>
+        <v>0.08849835985676258</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.4647956784362606</v>
+        <v>0.7490659910162378</v>
       </c>
       <c r="P6">
-        <v>0.9509109777283911</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.4637887905125382</v>
+      </c>
+      <c r="R6">
+        <v>0.9044272967031723</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6639142363916335</v>
+        <v>0.6242031136874857</v>
       </c>
       <c r="C7">
-        <v>0.1658512995904431</v>
+        <v>0.1811537094481537</v>
       </c>
       <c r="D7">
-        <v>0.04583168893793754</v>
+        <v>0.04785110714326635</v>
       </c>
       <c r="E7">
-        <v>0.2485911676352188</v>
+        <v>0.249941498429763</v>
       </c>
       <c r="F7">
-        <v>0.6415949793224485</v>
+        <v>0.592218098519119</v>
       </c>
       <c r="G7">
-        <v>0.5658030733266344</v>
+        <v>0.4995599803411039</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.001097088001294821</v>
+        <v>0.0009446756961866143</v>
       </c>
       <c r="J7">
-        <v>0.4362777904663915</v>
+        <v>0.4310610493847946</v>
       </c>
       <c r="K7">
-        <v>0.4083844861842287</v>
+        <v>0.3623495523318461</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.19430970853983</v>
       </c>
       <c r="M7">
-        <v>0.7928272489246524</v>
+        <v>0.08941744778042349</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.4884995898201154</v>
+        <v>0.7851656030174183</v>
       </c>
       <c r="P7">
-        <v>0.9398489768388032</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.4871011600395789</v>
+      </c>
+      <c r="R7">
+        <v>0.892906676447657</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.804676291204828</v>
+        <v>0.7488352193005596</v>
       </c>
       <c r="C8">
-        <v>0.2008431229118912</v>
+        <v>0.222218615973631</v>
       </c>
       <c r="D8">
-        <v>0.05042167929394736</v>
+        <v>0.05408792889326719</v>
       </c>
       <c r="E8">
-        <v>0.3007365220024383</v>
+        <v>0.3025543205756662</v>
       </c>
       <c r="F8">
-        <v>0.6986065862851092</v>
+        <v>0.6362870047903684</v>
       </c>
       <c r="G8">
-        <v>0.612093243329511</v>
+        <v>0.5407242084921222</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.0007071239411393648</v>
+        <v>0.0008789087298097797</v>
       </c>
       <c r="J8">
-        <v>0.4506704479109374</v>
+        <v>0.4330948665121497</v>
       </c>
       <c r="K8">
-        <v>0.4206494162479011</v>
+        <v>0.3667503950064877</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1894962909970346</v>
       </c>
       <c r="M8">
-        <v>0.9612498576275925</v>
+        <v>0.09566798240119212</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.5941147185028157</v>
+        <v>0.9471657922108818</v>
       </c>
       <c r="P8">
-        <v>0.8939294460100911</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.5913438688230173</v>
+      </c>
+      <c r="R8">
+        <v>0.8457972109451752</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.083869108870402</v>
+        <v>0.9960859236860244</v>
       </c>
       <c r="C9">
-        <v>0.2699448771904684</v>
+        <v>0.3058321233062316</v>
       </c>
       <c r="D9">
-        <v>0.05912234370538272</v>
+        <v>0.06569314852345798</v>
       </c>
       <c r="E9">
-        <v>0.4071091850954076</v>
+        <v>0.4094135137737425</v>
       </c>
       <c r="F9">
-        <v>0.8208522066995272</v>
+        <v>0.7357757690796802</v>
       </c>
       <c r="G9">
-        <v>0.7130061975602473</v>
+        <v>0.6195876972820145</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.002015544668065417</v>
+        <v>0.002223272443105273</v>
       </c>
       <c r="J9">
-        <v>0.4847158303170431</v>
+        <v>0.4594165724553534</v>
       </c>
       <c r="K9">
-        <v>0.4504501652129633</v>
+        <v>0.3819262738153952</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1821595025784184</v>
       </c>
       <c r="M9">
-        <v>1.294398587761179</v>
+        <v>0.1148791818087496</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.8058077732632114</v>
+        <v>1.270468192995821</v>
       </c>
       <c r="P9">
-        <v>0.8123379125238372</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.8006624614461231</v>
+      </c>
+      <c r="R9">
+        <v>0.7627500098247282</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.287447973016072</v>
+        <v>1.171974668067264</v>
       </c>
       <c r="C10">
-        <v>0.3234187035170066</v>
+        <v>0.3675377205235861</v>
       </c>
       <c r="D10">
-        <v>0.06561059537348513</v>
+        <v>0.07511351766990515</v>
       </c>
       <c r="E10">
-        <v>0.4887497888012646</v>
+        <v>0.49201276266664</v>
       </c>
       <c r="F10">
-        <v>0.9144810226797517</v>
+        <v>0.8037973388653228</v>
       </c>
       <c r="G10">
-        <v>0.7904518339931741</v>
+        <v>0.6993770417448815</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.004839387156511776</v>
+        <v>0.004679098371470403</v>
       </c>
       <c r="J10">
-        <v>0.5117614007774023</v>
+        <v>0.4488313166725817</v>
       </c>
       <c r="K10">
-        <v>0.4734194056607492</v>
+        <v>0.389748737844144</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1751239356222278</v>
       </c>
       <c r="M10">
-        <v>1.541060292736347</v>
+        <v>0.1306449332249535</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.9650871198661335</v>
+        <v>1.502460581644158</v>
       </c>
       <c r="P10">
-        <v>0.7559667842857571</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.9563339291577861</v>
+      </c>
+      <c r="R10">
+        <v>0.7028699025181631</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.375950874471101</v>
+        <v>1.242524620054809</v>
       </c>
       <c r="C11">
-        <v>0.3503031730312784</v>
+        <v>0.3929441014445842</v>
       </c>
       <c r="D11">
-        <v>0.06884854344896496</v>
+        <v>0.08104756530043034</v>
       </c>
       <c r="E11">
-        <v>0.52693341562059</v>
+        <v>0.5317804541734645</v>
       </c>
       <c r="F11">
-        <v>0.9547585363633857</v>
+        <v>0.8189505065071643</v>
       </c>
       <c r="G11">
-        <v>0.822980661706481</v>
+        <v>0.7673913010284679</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.006907235308670323</v>
+        <v>0.006502253653468237</v>
       </c>
       <c r="J11">
-        <v>0.5227697847020352</v>
+        <v>0.3943467252536834</v>
       </c>
       <c r="K11">
-        <v>0.4815387196765641</v>
+        <v>0.3847870737274874</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1689491910824366</v>
       </c>
       <c r="M11">
-        <v>1.653070834533082</v>
+        <v>0.134894114779776</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.038436027447467</v>
+        <v>1.59593331977544</v>
       </c>
       <c r="P11">
-        <v>0.7294444275904226</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.025357521205365</v>
+      </c>
+      <c r="R11">
+        <v>0.6716293638111619</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.41168193704388</v>
+        <v>1.270543924640066</v>
       </c>
       <c r="C12">
-        <v>0.3595376713338112</v>
+        <v>0.4008549592148825</v>
       </c>
       <c r="D12">
-        <v>0.06992896419769323</v>
+        <v>0.08331865970010455</v>
       </c>
       <c r="E12">
-        <v>0.5415150679269871</v>
+        <v>0.5471128092094375</v>
       </c>
       <c r="F12">
-        <v>0.9721292500259722</v>
+        <v>0.8248574951143297</v>
       </c>
       <c r="G12">
-        <v>0.8375539925882123</v>
+        <v>0.8001598367376346</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.007581432197819815</v>
+        <v>0.007011972298128555</v>
       </c>
       <c r="J12">
-        <v>0.5280847513963067</v>
+        <v>0.3705074347654289</v>
       </c>
       <c r="K12">
-        <v>0.486195437724632</v>
+        <v>0.3834269954740392</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1668308807520837</v>
       </c>
       <c r="M12">
-        <v>1.696089261772102</v>
+        <v>0.1367560399907859</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.066507777407331</v>
+        <v>1.630353214264545</v>
       </c>
       <c r="P12">
-        <v>0.7205699681376672</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>1.051426758805988</v>
+      </c>
+      <c r="R12">
+        <v>0.6602445029600066</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.404429849472848</v>
+        <v>1.264951924497154</v>
       </c>
       <c r="C13">
-        <v>0.357333694963387</v>
+        <v>0.3989535578085111</v>
       </c>
       <c r="D13">
-        <v>0.06966638277093296</v>
+        <v>0.08278695319808094</v>
       </c>
       <c r="E13">
-        <v>0.5383596934605279</v>
+        <v>0.5437888998174287</v>
       </c>
       <c r="F13">
-        <v>0.968763902780978</v>
+        <v>0.8239997250524027</v>
       </c>
       <c r="G13">
-        <v>0.8348222703602346</v>
+        <v>0.7932561733434227</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.007394646758868362</v>
+        <v>0.006852010966420963</v>
       </c>
       <c r="J13">
-        <v>0.5271448640310723</v>
+        <v>0.3759353650360993</v>
       </c>
       <c r="K13">
-        <v>0.4854910644471673</v>
+        <v>0.3840042335111633</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1673828473863495</v>
       </c>
       <c r="M13">
-        <v>1.686915848507539</v>
+        <v>0.1364709688659751</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.060476400059102</v>
+        <v>1.62309715573582</v>
       </c>
       <c r="P13">
-        <v>0.7226756522001416</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>1.04584196838362</v>
+      </c>
+      <c r="R13">
+        <v>0.6628260936941075</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.37907855149129</v>
+        <v>1.245018550456678</v>
       </c>
       <c r="C14">
-        <v>0.3509714329798612</v>
+        <v>0.3935113856636008</v>
       </c>
       <c r="D14">
-        <v>0.06892474342561883</v>
+        <v>0.08121623572964154</v>
       </c>
       <c r="E14">
-        <v>0.5281265334579217</v>
+        <v>0.5330322651303732</v>
       </c>
       <c r="F14">
-        <v>0.95634697425551</v>
+        <v>0.8196147719846323</v>
       </c>
       <c r="G14">
-        <v>0.8243522054981867</v>
+        <v>0.7701461457490097</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.006944607842742201</v>
+        <v>0.006522436138903132</v>
       </c>
       <c r="J14">
-        <v>0.5232939220026509</v>
+        <v>0.3925204343894535</v>
       </c>
       <c r="K14">
-        <v>0.482048528853845</v>
+        <v>0.3847973875394644</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1688163789533803</v>
       </c>
       <c r="M14">
-        <v>1.656648596780144</v>
+        <v>0.1350967360848152</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.040751389141228</v>
+        <v>1.598833245843394</v>
       </c>
       <c r="P14">
-        <v>0.7287969410633579</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>1.027515030697501</v>
+      </c>
+      <c r="R14">
+        <v>0.670749544100639</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.362680265491264</v>
+        <v>1.231906420878659</v>
       </c>
       <c r="C15">
-        <v>0.3475019750509318</v>
+        <v>0.3905441796084403</v>
       </c>
       <c r="D15">
-        <v>0.06852929044230649</v>
+        <v>0.08034502903665697</v>
       </c>
       <c r="E15">
-        <v>0.5218947433603631</v>
+        <v>0.5264997017057809</v>
       </c>
       <c r="F15">
-        <v>0.9480108384244801</v>
+        <v>0.8160416082430828</v>
       </c>
       <c r="G15">
-        <v>0.8171466742908251</v>
+        <v>0.7559174847555568</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.006758506571403089</v>
+        <v>0.006426510472097746</v>
       </c>
       <c r="J15">
-        <v>0.5205364939666026</v>
+        <v>0.4018951849103019</v>
       </c>
       <c r="K15">
-        <v>0.4793559485470595</v>
+        <v>0.3846862042393795</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1694915844847174</v>
       </c>
       <c r="M15">
-        <v>1.637935140780002</v>
+        <v>0.1340164186478354</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.028649117956817</v>
+        <v>1.58360117627123</v>
       </c>
       <c r="P15">
-        <v>0.7321686183813654</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>1.016223582984892</v>
+      </c>
+      <c r="R15">
+        <v>0.6753258189038753</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.274331196169413</v>
+        <v>1.160471608685754</v>
       </c>
       <c r="C16">
-        <v>0.3251553259916875</v>
+        <v>0.3695453646441251</v>
       </c>
       <c r="D16">
-        <v>0.06589017388260032</v>
+        <v>0.07529287388141626</v>
       </c>
       <c r="E16">
-        <v>0.4864016989023554</v>
+        <v>0.4895797771659218</v>
       </c>
       <c r="F16">
-        <v>0.9054910504721647</v>
+        <v>0.7967994360316197</v>
       </c>
       <c r="G16">
-        <v>0.7814587697156128</v>
+        <v>0.6892548792747704</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.005341871902997397</v>
+        <v>0.005348274818909537</v>
       </c>
       <c r="J16">
-        <v>0.5075770240159017</v>
+        <v>0.4487751250575087</v>
       </c>
       <c r="K16">
-        <v>0.4678823478096774</v>
+        <v>0.3857075148892122</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1739751534705682</v>
       </c>
       <c r="M16">
-        <v>1.532159170460289</v>
+        <v>0.1286271017952636</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.9599443846434141</v>
+        <v>1.494639688789135</v>
       </c>
       <c r="P16">
-        <v>0.7543227793871488</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.9514431369356018</v>
+      </c>
+      <c r="R16">
+        <v>0.7026113974053096</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.220190386161903</v>
+        <v>1.115437612090602</v>
       </c>
       <c r="C17">
-        <v>0.3115890579719576</v>
+        <v>0.3556361899315164</v>
       </c>
       <c r="D17">
-        <v>0.06427075517698455</v>
+        <v>0.0724931428897122</v>
       </c>
       <c r="E17">
-        <v>0.4648907341347268</v>
+        <v>0.4674451910802588</v>
       </c>
       <c r="F17">
-        <v>0.8797799506276505</v>
+        <v>0.7823365673582288</v>
       </c>
       <c r="G17">
-        <v>0.7599147023597794</v>
+        <v>0.6564976824509188</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.004599308475556896</v>
+        <v>0.004769865322765021</v>
       </c>
       <c r="J17">
-        <v>0.4998184368575238</v>
+        <v>0.4683331345928679</v>
       </c>
       <c r="K17">
-        <v>0.4609988917716237</v>
+        <v>0.385039416417321</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1762915397870017</v>
       </c>
       <c r="M17">
-        <v>1.467475136093299</v>
+        <v>0.1249171237291122</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.9180993487010625</v>
+        <v>1.437641021936031</v>
       </c>
       <c r="P17">
-        <v>0.7681849038449613</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.9114029066137093</v>
+      </c>
+      <c r="R17">
+        <v>0.7188573590661953</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.191276543426738</v>
+        <v>1.091161819675506</v>
       </c>
       <c r="C18">
-        <v>0.3027800577876292</v>
+        <v>0.3461318933086375</v>
       </c>
       <c r="D18">
-        <v>0.0631906510044189</v>
+        <v>0.0708228421696333</v>
       </c>
       <c r="E18">
-        <v>0.4525699996010175</v>
+        <v>0.4548539780572298</v>
       </c>
       <c r="F18">
-        <v>0.8670504705106339</v>
+        <v>0.7748446650408596</v>
       </c>
       <c r="G18">
-        <v>0.7497258334330894</v>
+        <v>0.6422601306862248</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.00398604767688493</v>
+        <v>0.004183015487373432</v>
       </c>
       <c r="J18">
-        <v>0.4964750010499444</v>
+        <v>0.4767810829398371</v>
       </c>
       <c r="K18">
-        <v>0.4586081727914291</v>
+        <v>0.3854968756539705</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1779380249567559</v>
       </c>
       <c r="M18">
-        <v>1.430819190821182</v>
+        <v>0.1231575807607967</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.8942460418225906</v>
+        <v>1.404463591934757</v>
       </c>
       <c r="P18">
-        <v>0.7772873360880794</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.8883733436876824</v>
+      </c>
+      <c r="R18">
+        <v>0.7287241252214827</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.179785298709135</v>
+        <v>1.081288248856907</v>
       </c>
       <c r="C19">
-        <v>0.300619124951055</v>
+        <v>0.3437328936933568</v>
       </c>
       <c r="D19">
-        <v>0.06293937254474002</v>
+        <v>0.0703989341379625</v>
       </c>
       <c r="E19">
-        <v>0.4484430366536927</v>
+        <v>0.450649614260783</v>
       </c>
       <c r="F19">
-        <v>0.8612746409792038</v>
+        <v>0.7707897529386258</v>
       </c>
       <c r="G19">
-        <v>0.744691010668376</v>
+        <v>0.6364322128698348</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.003960270342894034</v>
+        <v>0.004204462471240511</v>
       </c>
       <c r="J19">
-        <v>0.4945430844408918</v>
+        <v>0.4782422933955672</v>
       </c>
       <c r="K19">
-        <v>0.4566397083627081</v>
+        <v>0.3845701778647523</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1780990866624137</v>
       </c>
       <c r="M19">
-        <v>1.418049278101194</v>
+        <v>0.1221489071132922</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.8861008435575357</v>
+        <v>1.392735148664144</v>
       </c>
       <c r="P19">
-        <v>0.7795891253951659</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.8804761415362989</v>
+      </c>
+      <c r="R19">
+        <v>0.731475233992029</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.226125420104864</v>
+        <v>1.120437138409216</v>
       </c>
       <c r="C20">
-        <v>0.3129451299800792</v>
+        <v>0.3570652301465032</v>
       </c>
       <c r="D20">
-        <v>0.06443148635666773</v>
+        <v>0.07276767195688194</v>
       </c>
       <c r="E20">
-        <v>0.4671681119657549</v>
+        <v>0.4697798131626598</v>
       </c>
       <c r="F20">
-        <v>0.8826546434459033</v>
+        <v>0.7841123744741765</v>
       </c>
       <c r="G20">
-        <v>0.7623586578321522</v>
+        <v>0.6598458163052783</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.004655423600134156</v>
+        <v>0.004805754167815479</v>
       </c>
       <c r="J20">
-        <v>0.5007197984356537</v>
+        <v>0.4667073056409663</v>
       </c>
       <c r="K20">
-        <v>0.4618447117607403</v>
+        <v>0.3852602896019093</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.176098745624099</v>
       </c>
       <c r="M20">
-        <v>1.474391310990569</v>
+        <v>0.1253662016390393</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.9225517197167505</v>
+        <v>1.443833615416168</v>
       </c>
       <c r="P20">
-        <v>0.7667797346216858</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.9156847034734668</v>
+      </c>
+      <c r="R20">
+        <v>0.7172033892919458</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.384035248311051</v>
+        <v>1.246723532424994</v>
       </c>
       <c r="C21">
-        <v>0.3540202569026007</v>
+        <v>0.3944604726244734</v>
       </c>
       <c r="D21">
-        <v>0.0693099247828215</v>
+        <v>0.08232732803436704</v>
       </c>
       <c r="E21">
-        <v>0.5311699261399951</v>
+        <v>0.5366389015366551</v>
       </c>
       <c r="F21">
-        <v>0.9578292027138389</v>
+        <v>0.8142791580149549</v>
       </c>
       <c r="G21">
-        <v>0.8250925541231737</v>
+        <v>0.7868674419725181</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.007302639356066898</v>
+        <v>0.006883587531318014</v>
       </c>
       <c r="J21">
-        <v>0.5232474481684761</v>
+        <v>0.3710721092247695</v>
       </c>
       <c r="K21">
-        <v>0.4813645724871947</v>
+        <v>0.3809185681860399</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1671399552010335</v>
       </c>
       <c r="M21">
-        <v>1.664990785657295</v>
+        <v>0.1339940583674135</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.046411413212887</v>
+        <v>1.601394958015561</v>
       </c>
       <c r="P21">
-        <v>0.7258668812462332</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.031879781324733</v>
+      </c>
+      <c r="R21">
+        <v>0.6664401482331694</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.490635726743193</v>
+        <v>1.33109413542627</v>
       </c>
       <c r="C22">
-        <v>0.379873950934865</v>
+        <v>0.4170051145107152</v>
       </c>
       <c r="D22">
-        <v>0.07228532795385689</v>
+        <v>0.08865519326485582</v>
       </c>
       <c r="E22">
-        <v>0.5738871117508211</v>
+        <v>0.5814227427575247</v>
       </c>
       <c r="F22">
-        <v>1.011008725926629</v>
+        <v>0.8351960233679989</v>
       </c>
       <c r="G22">
-        <v>0.8702761147612392</v>
+        <v>0.8828685249847865</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.009175894533339779</v>
+        <v>0.008185967311729492</v>
       </c>
       <c r="J22">
-        <v>0.5401258384122229</v>
+        <v>0.313562303060138</v>
       </c>
       <c r="K22">
-        <v>0.4968106492409063</v>
+        <v>0.3792301734165022</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1618352408072994</v>
       </c>
       <c r="M22">
-        <v>1.791010635915711</v>
+        <v>0.1404212527033479</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.128617479599107</v>
+        <v>1.703438110731639</v>
       </c>
       <c r="P22">
-        <v>0.7014833852209179</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.108450855955667</v>
+      </c>
+      <c r="R22">
+        <v>0.6349812930563754</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.436720878474432</v>
+        <v>1.290229857657181</v>
       </c>
       <c r="C23">
-        <v>0.3645998510094728</v>
+        <v>0.4048128743509096</v>
       </c>
       <c r="D23">
-        <v>0.07049542284856614</v>
+        <v>0.08469002832354278</v>
       </c>
       <c r="E23">
-        <v>0.5509443301848478</v>
+        <v>0.5570705588550595</v>
       </c>
       <c r="F23">
-        <v>0.9851037862647587</v>
+        <v>0.8297343867508573</v>
       </c>
       <c r="G23">
-        <v>0.8488524381496489</v>
+        <v>0.8246327299594327</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.00787792659699349</v>
+        <v>0.007152337589714008</v>
       </c>
       <c r="J23">
-        <v>0.5324704227873127</v>
+        <v>0.3548974011824555</v>
       </c>
       <c r="K23">
-        <v>0.4905576482820351</v>
+        <v>0.3834314267578733</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1657721745078646</v>
       </c>
       <c r="M23">
-        <v>1.724332669812497</v>
+        <v>0.1383400682617513</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.084789547166629</v>
+        <v>1.652574144123861</v>
       </c>
       <c r="P23">
-        <v>0.7157680350580904</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.068306661077251</v>
+      </c>
+      <c r="R23">
+        <v>0.6533563876559381</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.228127299865406</v>
+        <v>1.122526382782439</v>
       </c>
       <c r="C24">
-        <v>0.3101009337590312</v>
+        <v>0.3540101075138864</v>
       </c>
       <c r="D24">
-        <v>0.06404464079584926</v>
+        <v>0.07229922782611453</v>
       </c>
       <c r="E24">
-        <v>0.4660570120415741</v>
+        <v>0.4686436741501367</v>
       </c>
       <c r="F24">
-        <v>0.8854406356088447</v>
+        <v>0.7870421763676347</v>
       </c>
       <c r="G24">
-        <v>0.7656634314157458</v>
+        <v>0.6623311471512636</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.004183888685384218</v>
+        <v>0.004237667856020977</v>
       </c>
       <c r="J24">
-        <v>0.5025396451938775</v>
+        <v>0.4694323938496012</v>
       </c>
       <c r="K24">
-        <v>0.464671797538287</v>
+        <v>0.3879115202373455</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1771846835909123</v>
       </c>
       <c r="M24">
-        <v>1.472282551514013</v>
+        <v>0.126245646797976</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.920775529330129</v>
+        <v>1.44200695372669</v>
       </c>
       <c r="P24">
-        <v>0.769599331379947</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.91397548129585</v>
+      </c>
+      <c r="R24">
+        <v>0.7194541240560852</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.003921732424288</v>
+        <v>0.9260209312493828</v>
       </c>
       <c r="C25">
-        <v>0.2530625188734916</v>
+        <v>0.2858214981690139</v>
       </c>
       <c r="D25">
-        <v>0.0570668659364344</v>
+        <v>0.06269695345011428</v>
       </c>
       <c r="E25">
-        <v>0.377873815162765</v>
+        <v>0.3798935800860122</v>
       </c>
       <c r="F25">
-        <v>0.7830261386244786</v>
+        <v>0.706507906972476</v>
       </c>
       <c r="G25">
-        <v>0.6807038828746386</v>
+        <v>0.5892150201215571</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.001761382644350995</v>
+        <v>0.002110967953246501</v>
       </c>
       <c r="J25">
-        <v>0.4729050207329948</v>
+        <v>0.4577583884882017</v>
       </c>
       <c r="K25">
-        <v>0.4389447253118135</v>
+        <v>0.3758407866861866</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1834513392821115</v>
       </c>
       <c r="M25">
-        <v>1.202998268918236</v>
+        <v>0.1084364865572525</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.7477362712215339</v>
+        <v>1.183486489892999</v>
       </c>
       <c r="P25">
-        <v>0.8314977092640419</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0.7436505029386851</v>
+      </c>
+      <c r="R25">
+        <v>0.7835906401952233</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
